--- a/public/input/summary-opendata.xlsx
+++ b/public/input/summary-opendata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valentina Andrade\Documents\GitHub\coes\lisa-coes\content\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A795B1A7-F0C1-4026-B228-06958FC5C3DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C85C908-B1CB-417C-84B6-95D76B9F8463}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{04B4ED3C-72C1-4A08-99FB-78FDB9FB65F1}"/>
+    <workbookView xWindow="3310" yWindow="1830" windowWidth="14400" windowHeight="7370" xr2:uid="{04B4ED3C-72C1-4A08-99FB-78FDB9FB65F1}"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="36">
   <si>
     <t>Elemento</t>
   </si>
@@ -133,13 +133,16 @@
     <t>Ejemplo 4</t>
   </si>
   <si>
-    <t>[Ejemplo 1](www.ejemplo1]</t>
-  </si>
-  <si>
-    <t>Ejemplo2</t>
-  </si>
-  <si>
-    <t>Ejemplo4</t>
+    <t>Ejemplo de base de datos</t>
+  </si>
+  <si>
+    <t>Ejemplo de cuestionario</t>
+  </si>
+  <si>
+    <t>Ejemplo de libro de códigos</t>
+  </si>
+  <si>
+    <t>Ejemplo de ficha técnica</t>
   </si>
 </sst>
 </file>
@@ -194,13 +197,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D96ED4-54E1-4EA5-B33D-A1FCA11A3BB3}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -659,7 +662,7 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -675,8 +678,8 @@
       <c r="D9" t="s">
         <v>27</v>
       </c>
-      <c r="E9" t="s">
-        <v>30</v>
+      <c r="E9" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -693,7 +696,7 @@
         <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -710,7 +713,7 @@
         <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -727,7 +730,7 @@
         <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -743,8 +746,8 @@
       <c r="D13" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>34</v>
+      <c r="E13" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -787,145 +790,151 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
       <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
       <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
       <c r="C13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="D6:D13"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E13"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
@@ -935,12 +944,6 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B13"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="D6:D13"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/public/input/summary-opendata.xlsx
+++ b/public/input/summary-opendata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valentina Andrade\Documents\GitHub\coes\lisa-coes\content\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C85C908-B1CB-417C-84B6-95D76B9F8463}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E2997E-7F4E-4BEF-8C89-9B82DF36F0C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3310" yWindow="1830" windowWidth="14400" windowHeight="7370" xr2:uid="{04B4ED3C-72C1-4A08-99FB-78FDB9FB65F1}"/>
+    <workbookView xWindow="7170" yWindow="-10910" windowWidth="19420" windowHeight="10420" xr2:uid="{04B4ED3C-72C1-4A08-99FB-78FDB9FB65F1}"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="40">
   <si>
     <t>Elemento</t>
   </si>
@@ -133,16 +133,28 @@
     <t>Ejemplo 4</t>
   </si>
   <si>
-    <t>Ejemplo de base de datos</t>
-  </si>
-  <si>
-    <t>Ejemplo de cuestionario</t>
-  </si>
-  <si>
-    <t>Ejemplo de libro de códigos</t>
-  </si>
-  <si>
-    <t>Ejemplo de ficha técnica</t>
+    <t>1. 1 Ejemplo de base de datos</t>
+  </si>
+  <si>
+    <t>1.2 Ejemplo de base de datos</t>
+  </si>
+  <si>
+    <t>1.1 Ejemplo de cuestionario</t>
+  </si>
+  <si>
+    <t>1.2 Ejemplo de cuestionario</t>
+  </si>
+  <si>
+    <t>1.1 Ejemplo de libro de códigos</t>
+  </si>
+  <si>
+    <t>1.2 Ejemplo de libro de códigos</t>
+  </si>
+  <si>
+    <t>1.1 Ejemplo de ficha técnica</t>
+  </si>
+  <si>
+    <t>1.2 Ejemplo de ficha técnica</t>
   </si>
 </sst>
 </file>
@@ -520,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D96ED4-54E1-4EA5-B33D-A1FCA11A3BB3}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -594,7 +606,7 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -611,7 +623,7 @@
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -628,7 +640,7 @@
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -645,7 +657,7 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -662,7 +674,7 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -679,7 +691,7 @@
         <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -696,7 +708,7 @@
         <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -713,7 +725,7 @@
         <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -730,7 +742,7 @@
         <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -747,7 +759,7 @@
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -929,12 +941,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="D6:D13"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E13"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
@@ -944,6 +950,12 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B13"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="D6:D13"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/public/input/summary-opendata.xlsx
+++ b/public/input/summary-opendata.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valentina Andrade\Documents\GitHub\coes\lisa-coes\content\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E2997E-7F4E-4BEF-8C89-9B82DF36F0C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B49A4C5-7106-403F-9DCB-D5B2E88D6DAB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7170" yWindow="-10910" windowWidth="19420" windowHeight="10420" xr2:uid="{04B4ED3C-72C1-4A08-99FB-78FDB9FB65F1}"/>
+    <workbookView xWindow="7170" yWindow="-10910" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{04B4ED3C-72C1-4A08-99FB-78FDB9FB65F1}"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="2" r:id="rId1"/>
     <sheet name="pre" sheetId="1" r:id="rId2"/>
+    <sheet name="codebok" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="52">
   <si>
     <t>Elemento</t>
   </si>
@@ -155,6 +156,42 @@
   </si>
   <si>
     <t>1.2 Ejemplo de ficha técnica</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Función</t>
+  </si>
+  <si>
+    <t>SPSS</t>
+  </si>
+  <si>
+    <t>STATA</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>`CODEBOOK`</t>
+  </si>
+  <si>
+    <t>`codebook`</t>
+  </si>
+  <si>
+    <t>`view_df()`</t>
+  </si>
+  <si>
+    <t>`frq()`</t>
+  </si>
+  <si>
+    <t>Codebook en R</t>
+  </si>
+  <si>
+    <t>Codebook en SPSS</t>
+  </si>
+  <si>
+    <t>Codebook en STATA</t>
   </si>
 </sst>
 </file>
@@ -532,9 +569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D96ED4-54E1-4EA5-B33D-A1FCA11A3BB3}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -941,6 +976,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="D6:D13"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E13"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
@@ -950,14 +991,78 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B13"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="D6:D13"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D530500-3512-419B-BFFB-5B6A7DE946CF}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>